--- a/data/comisiones/calificados_fase_c.xlsx
+++ b/data/comisiones/calificados_fase_c.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\comisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\comisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C19C334-4047-4403-9C06-4354D1E7D6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C491D6-AAF4-4FF1-9846-5E8E80F7E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69767CE1-037C-4BFD-BEE1-A96D64583BBB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69767CE1-037C-4BFD-BEE1-A96D64583BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$654</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$652</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="70">
   <si>
     <t>line_id</t>
   </si>
@@ -122,12 +123,129 @@
   <si>
     <t>calificacion</t>
   </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 12386</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 29222</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 29659</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 33526</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 75756</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 97945</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 107524</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 110336</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': X</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 209488</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 137860</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 146708</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 159958</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 173536</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 178672</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 188629</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 196913</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 256705</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 255135</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 255134</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 247874</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 276593</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 292483</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 294730</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 293752</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 304349</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 310743</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 312617</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 329950</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 333018</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 333034</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 373197</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 337086</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 348666</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 348664</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 364494</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 407729</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 415446</t>
+  </si>
+  <si>
+    <t>Compra que genera duplicado de 'fact_line_id': 406439</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +279,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -215,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,6 +356,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,23 +681,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6AD27B-0B32-4071-9260-9D804BC9A905}">
-  <dimension ref="A1:D654"/>
+  <dimension ref="A1:D652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -578,7 +711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>58</v>
       </c>
@@ -590,7 +723,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>129</v>
       </c>
@@ -602,19 +735,19 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12386</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>132</v>
       </c>
@@ -626,19 +759,19 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>196913</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>135</v>
       </c>
@@ -646,11 +779,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>143779</v>
+        <v>36574</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>135</v>
       </c>
@@ -658,11 +791,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>36574</v>
+        <v>143779</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>166</v>
       </c>
@@ -670,11 +803,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>10434</v>
+        <v>9123</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>166</v>
       </c>
@@ -682,11 +815,11 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>9123</v>
+        <v>10434</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -696,7 +829,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>194</v>
       </c>
@@ -706,7 +839,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>195</v>
       </c>
@@ -718,7 +851,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>196</v>
       </c>
@@ -730,7 +863,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>197</v>
       </c>
@@ -740,7 +873,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>205</v>
       </c>
@@ -752,7 +885,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>222</v>
       </c>
@@ -760,11 +893,11 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>16663</v>
+        <v>14272</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>222</v>
       </c>
@@ -776,7 +909,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>222</v>
       </c>
@@ -784,11 +917,11 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>14272</v>
+        <v>16663</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>229</v>
       </c>
@@ -796,11 +929,11 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>14950</v>
+        <v>14273</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>229</v>
       </c>
@@ -808,11 +941,11 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>14273</v>
+        <v>14950</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>304</v>
       </c>
@@ -822,7 +955,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>396</v>
       </c>
@@ -834,7 +967,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>401</v>
       </c>
@@ -842,11 +975,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>18951</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18901</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>401</v>
       </c>
@@ -854,11 +987,11 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>18939</v>
+        <v>18929</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>401</v>
       </c>
@@ -866,11 +999,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>18929</v>
+        <v>18939</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>401</v>
       </c>
@@ -878,11 +1011,11 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>18901</v>
+        <v>18951</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>411</v>
       </c>
@@ -894,7 +1027,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>530</v>
       </c>
@@ -906,7 +1039,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>543</v>
       </c>
@@ -914,11 +1047,11 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>21715</v>
+        <v>21711</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>543</v>
       </c>
@@ -926,11 +1059,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>21711</v>
+        <v>21715</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>545</v>
       </c>
@@ -938,11 +1071,11 @@
         <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>29659</v>
+        <v>21898</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>545</v>
       </c>
@@ -950,23 +1083,21 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>21898</v>
+        <v>29659</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>571</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>416904</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>574</v>
       </c>
@@ -978,7 +1109,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>582</v>
       </c>
@@ -988,7 +1119,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>590</v>
       </c>
@@ -1000,7 +1131,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>610</v>
       </c>
@@ -1012,7 +1143,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>622</v>
       </c>
@@ -1024,7 +1155,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>624</v>
       </c>
@@ -1034,7 +1165,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>634</v>
       </c>
@@ -1046,7 +1177,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>665</v>
       </c>
@@ -1054,11 +1185,11 @@
         <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>28339</v>
+        <v>28301</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>665</v>
       </c>
@@ -1066,11 +1197,11 @@
         <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>28312</v>
+        <v>28308</v>
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>665</v>
       </c>
@@ -1078,11 +1209,11 @@
         <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>28308</v>
+        <v>28312</v>
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>665</v>
       </c>
@@ -1090,11 +1221,11 @@
         <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>28301</v>
+        <v>28339</v>
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>666</v>
       </c>
@@ -1102,11 +1233,11 @@
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>28311</v>
+        <v>28286</v>
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>666</v>
       </c>
@@ -1114,11 +1245,11 @@
         <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>28307</v>
+        <v>28304</v>
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>666</v>
       </c>
@@ -1126,11 +1257,11 @@
         <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>28304</v>
+        <v>28307</v>
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>666</v>
       </c>
@@ -1138,23 +1269,23 @@
         <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>28286</v>
+        <v>28311</v>
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>690</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1">
-        <v>29222</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>697</v>
       </c>
@@ -1166,19 +1297,19 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>699</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1">
-        <v>29659</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>737</v>
       </c>
@@ -1190,7 +1321,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>745</v>
       </c>
@@ -1202,7 +1333,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>770</v>
       </c>
@@ -1214,7 +1345,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>771</v>
       </c>
@@ -1222,11 +1353,11 @@
         <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>36164</v>
+        <v>31127</v>
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>771</v>
       </c>
@@ -1234,11 +1365,11 @@
         <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>31127</v>
+        <v>36164</v>
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>772</v>
       </c>
@@ -1246,11 +1377,11 @@
         <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>18782</v>
+        <v>18778</v>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>772</v>
       </c>
@@ -1258,11 +1389,11 @@
         <v>2</v>
       </c>
       <c r="C59" s="1">
-        <v>18778</v>
+        <v>18782</v>
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>780</v>
       </c>
@@ -1274,7 +1405,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1092</v>
       </c>
@@ -1286,7 +1417,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1117</v>
       </c>
@@ -1296,7 +1427,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1122</v>
       </c>
@@ -1308,7 +1439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1123</v>
       </c>
@@ -1318,7 +1449,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1164</v>
       </c>
@@ -1330,7 +1461,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1169</v>
       </c>
@@ -1340,7 +1471,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1171</v>
       </c>
@@ -1350,7 +1481,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1172</v>
       </c>
@@ -1358,11 +1489,11 @@
         <v>2</v>
       </c>
       <c r="C68" s="1">
-        <v>80111</v>
+        <v>42653</v>
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1172</v>
       </c>
@@ -1374,7 +1505,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1172</v>
       </c>
@@ -1382,11 +1513,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>42653</v>
+        <v>80111</v>
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1173</v>
       </c>
@@ -1396,7 +1527,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1175</v>
       </c>
@@ -1408,7 +1539,7 @@
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1176</v>
       </c>
@@ -1416,11 +1547,11 @@
         <v>2</v>
       </c>
       <c r="C73" s="1">
-        <v>14949</v>
+        <v>12424</v>
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1176</v>
       </c>
@@ -1428,11 +1559,11 @@
         <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>12424</v>
+        <v>14949</v>
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1178</v>
       </c>
@@ -1444,7 +1575,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1180</v>
       </c>
@@ -1456,7 +1587,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1428</v>
       </c>
@@ -1468,7 +1599,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1499</v>
       </c>
@@ -1476,11 +1607,11 @@
         <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>79053</v>
+        <v>63589</v>
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1499</v>
       </c>
@@ -1488,11 +1619,11 @@
         <v>2</v>
       </c>
       <c r="C79" s="1">
-        <v>63589</v>
+        <v>79053</v>
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1517</v>
       </c>
@@ -1502,7 +1633,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1593</v>
       </c>
@@ -1512,7 +1643,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1609</v>
       </c>
@@ -1522,7 +1653,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1652</v>
       </c>
@@ -1530,11 +1661,11 @@
         <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>58573</v>
+        <v>58566</v>
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1652</v>
       </c>
@@ -1542,11 +1673,11 @@
         <v>2</v>
       </c>
       <c r="C84" s="1">
-        <v>58566</v>
+        <v>58573</v>
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1701</v>
       </c>
@@ -1558,7 +1689,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1787</v>
       </c>
@@ -1568,19 +1699,19 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1808</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="1">
-        <v>33526</v>
-      </c>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1810</v>
       </c>
@@ -1588,11 +1719,11 @@
         <v>2</v>
       </c>
       <c r="C88" s="1">
-        <v>174589</v>
+        <v>64958</v>
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1810</v>
       </c>
@@ -1604,7 +1735,7 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1810</v>
       </c>
@@ -1612,11 +1743,11 @@
         <v>2</v>
       </c>
       <c r="C90" s="1">
-        <v>64958</v>
+        <v>174589</v>
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1829</v>
       </c>
@@ -1624,11 +1755,11 @@
         <v>2</v>
       </c>
       <c r="C91" s="1">
-        <v>66290</v>
+        <v>66127</v>
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1829</v>
       </c>
@@ -1636,11 +1767,11 @@
         <v>2</v>
       </c>
       <c r="C92" s="1">
-        <v>66127</v>
+        <v>66290</v>
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1830</v>
       </c>
@@ -1650,7 +1781,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1831</v>
       </c>
@@ -1662,7 +1793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1832</v>
       </c>
@@ -1674,7 +1805,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1902</v>
       </c>
@@ -1684,7 +1815,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1903</v>
       </c>
@@ -1692,11 +1823,11 @@
         <v>2</v>
       </c>
       <c r="C97" s="1">
-        <v>67036</v>
+        <v>66878</v>
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1903</v>
       </c>
@@ -1704,11 +1835,11 @@
         <v>2</v>
       </c>
       <c r="C98" s="1">
-        <v>66878</v>
+        <v>67036</v>
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2075</v>
       </c>
@@ -1718,7 +1849,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2088</v>
       </c>
@@ -1730,19 +1861,19 @@
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2090</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="1">
-        <v>75756</v>
-      </c>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2100</v>
       </c>
@@ -1752,7 +1883,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2126</v>
       </c>
@@ -1764,7 +1895,7 @@
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2134</v>
       </c>
@@ -1774,7 +1905,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2135</v>
       </c>
@@ -1784,7 +1915,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2136</v>
       </c>
@@ -1794,7 +1925,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2237</v>
       </c>
@@ -1806,7 +1937,7 @@
       </c>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2257</v>
       </c>
@@ -1816,7 +1947,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2297</v>
       </c>
@@ -1828,7 +1959,7 @@
       </c>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2359</v>
       </c>
@@ -1836,11 +1967,11 @@
         <v>2</v>
       </c>
       <c r="C110" s="1">
-        <v>79619</v>
+        <v>79210</v>
       </c>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2359</v>
       </c>
@@ -1848,11 +1979,11 @@
         <v>2</v>
       </c>
       <c r="C111" s="1">
-        <v>79210</v>
+        <v>79619</v>
       </c>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2360</v>
       </c>
@@ -1860,11 +1991,11 @@
         <v>2</v>
       </c>
       <c r="C112" s="1">
-        <v>79621</v>
+        <v>79211</v>
       </c>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2360</v>
       </c>
@@ -1872,11 +2003,11 @@
         <v>2</v>
       </c>
       <c r="C113" s="1">
-        <v>79211</v>
+        <v>79621</v>
       </c>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2450</v>
       </c>
@@ -1886,7 +2017,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2451</v>
       </c>
@@ -1896,7 +2027,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2505</v>
       </c>
@@ -1908,7 +2039,7 @@
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2506</v>
       </c>
@@ -1920,7 +2051,7 @@
       </c>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2593</v>
       </c>
@@ -1932,7 +2063,7 @@
       </c>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2679</v>
       </c>
@@ -1942,7 +2073,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2680</v>
       </c>
@@ -1952,7 +2083,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2681</v>
       </c>
@@ -1962,7 +2093,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2686</v>
       </c>
@@ -1972,7 +2103,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2687</v>
       </c>
@@ -1982,7 +2113,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2692</v>
       </c>
@@ -1992,7 +2123,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2695</v>
       </c>
@@ -2002,7 +2133,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2697</v>
       </c>
@@ -2012,7 +2143,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2699</v>
       </c>
@@ -2022,7 +2153,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2718</v>
       </c>
@@ -2034,7 +2165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2739</v>
       </c>
@@ -2044,7 +2175,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2740</v>
       </c>
@@ -2054,7 +2185,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2747</v>
       </c>
@@ -2064,7 +2195,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2760</v>
       </c>
@@ -2074,7 +2205,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2768</v>
       </c>
@@ -2084,7 +2215,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2772</v>
       </c>
@@ -2094,7 +2225,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2774</v>
       </c>
@@ -2104,7 +2235,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2775</v>
       </c>
@@ -2114,7 +2245,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2779</v>
       </c>
@@ -2124,7 +2255,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2782</v>
       </c>
@@ -2134,7 +2265,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2785</v>
       </c>
@@ -2144,7 +2275,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2789</v>
       </c>
@@ -2154,7 +2285,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2791</v>
       </c>
@@ -2164,7 +2295,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2801</v>
       </c>
@@ -2174,7 +2305,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2804</v>
       </c>
@@ -2184,7 +2315,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2805</v>
       </c>
@@ -2194,7 +2325,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2806</v>
       </c>
@@ -2204,7 +2335,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2811</v>
       </c>
@@ -2214,7 +2345,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2842</v>
       </c>
@@ -2224,7 +2355,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2868</v>
       </c>
@@ -2232,11 +2363,11 @@
         <v>2</v>
       </c>
       <c r="C148" s="1">
-        <v>139385</v>
+        <v>89728</v>
       </c>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2868</v>
       </c>
@@ -2248,7 +2379,7 @@
       </c>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2868</v>
       </c>
@@ -2256,11 +2387,11 @@
         <v>2</v>
       </c>
       <c r="C150" s="1">
-        <v>89728</v>
+        <v>139385</v>
       </c>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2877</v>
       </c>
@@ -2270,7 +2401,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2900</v>
       </c>
@@ -2280,7 +2411,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2929</v>
       </c>
@@ -2290,7 +2421,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2955</v>
       </c>
@@ -2300,7 +2431,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2957</v>
       </c>
@@ -2312,7 +2443,7 @@
         <v>20996</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2990</v>
       </c>
@@ -2320,11 +2451,11 @@
         <v>2</v>
       </c>
       <c r="C156" s="1">
-        <v>198265</v>
+        <v>88254</v>
       </c>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2990</v>
       </c>
@@ -2332,11 +2463,11 @@
         <v>2</v>
       </c>
       <c r="C157" s="1">
-        <v>88254</v>
+        <v>198265</v>
       </c>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2991</v>
       </c>
@@ -2348,7 +2479,7 @@
       </c>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>3013</v>
       </c>
@@ -2358,7 +2489,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>3038</v>
       </c>
@@ -2368,7 +2499,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>3085</v>
       </c>
@@ -2380,19 +2511,19 @@
       </c>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>3086</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="1">
-        <v>110336</v>
-      </c>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>3183</v>
       </c>
@@ -2404,7 +2535,7 @@
       </c>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>3223</v>
       </c>
@@ -2414,7 +2545,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>3371</v>
       </c>
@@ -2422,11 +2553,11 @@
         <v>2</v>
       </c>
       <c r="C165" s="1">
-        <v>146708</v>
-      </c>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89729</v>
+      </c>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>3371</v>
       </c>
@@ -2434,11 +2565,11 @@
         <v>2</v>
       </c>
       <c r="C166" s="1">
-        <v>89729</v>
-      </c>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146708</v>
+      </c>
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>3372</v>
       </c>
@@ -2450,7 +2581,7 @@
       </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>3374</v>
       </c>
@@ -2462,7 +2593,7 @@
       </c>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>3375</v>
       </c>
@@ -2474,7 +2605,7 @@
       </c>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>3377</v>
       </c>
@@ -2484,7 +2615,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>3380</v>
       </c>
@@ -2494,7 +2625,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>3423</v>
       </c>
@@ -2506,7 +2637,7 @@
       </c>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>3424</v>
       </c>
@@ -2518,7 +2649,7 @@
       </c>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>3425</v>
       </c>
@@ -2530,7 +2661,7 @@
       </c>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>3426</v>
       </c>
@@ -2542,7 +2673,7 @@
       </c>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>3427</v>
       </c>
@@ -2554,7 +2685,7 @@
       </c>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>3428</v>
       </c>
@@ -2566,7 +2697,7 @@
       </c>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>3433</v>
       </c>
@@ -2576,7 +2707,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>3452</v>
       </c>
@@ -2588,7 +2719,7 @@
       </c>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>3453</v>
       </c>
@@ -2596,11 +2727,11 @@
         <v>2</v>
       </c>
       <c r="C180" s="1">
-        <v>94014</v>
+        <v>93982</v>
       </c>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>3453</v>
       </c>
@@ -2608,11 +2739,11 @@
         <v>2</v>
       </c>
       <c r="C181" s="1">
-        <v>93982</v>
+        <v>94014</v>
       </c>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>3461</v>
       </c>
@@ -2622,7 +2753,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>3472</v>
       </c>
@@ -2630,11 +2761,11 @@
         <v>2</v>
       </c>
       <c r="C183" s="1">
-        <v>157273</v>
+        <v>106516</v>
       </c>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>3472</v>
       </c>
@@ -2642,11 +2773,11 @@
         <v>2</v>
       </c>
       <c r="C184" s="1">
-        <v>106516</v>
+        <v>157273</v>
       </c>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>3516</v>
       </c>
@@ -2658,7 +2789,7 @@
       </c>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>3540</v>
       </c>
@@ -2670,19 +2801,19 @@
       </c>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>3549</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C187" s="1">
-        <v>110336</v>
-      </c>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>3550</v>
       </c>
@@ -2692,19 +2823,19 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>3554</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189" s="1">
-        <v>107524</v>
-      </c>
-      <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>3635</v>
       </c>
@@ -2714,7 +2845,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>3801</v>
       </c>
@@ -2726,7 +2857,7 @@
       </c>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>3810</v>
       </c>
@@ -2738,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>3812</v>
       </c>
@@ -2746,11 +2877,11 @@
         <v>2</v>
       </c>
       <c r="C193" s="1">
-        <v>114530</v>
+        <v>114506</v>
       </c>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>3812</v>
       </c>
@@ -2758,11 +2889,11 @@
         <v>2</v>
       </c>
       <c r="C194" s="1">
-        <v>114506</v>
+        <v>114530</v>
       </c>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>3814</v>
       </c>
@@ -2770,11 +2901,11 @@
         <v>2</v>
       </c>
       <c r="C195" s="1">
-        <v>114532</v>
+        <v>114508</v>
       </c>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>3814</v>
       </c>
@@ -2782,11 +2913,11 @@
         <v>2</v>
       </c>
       <c r="C196" s="1">
-        <v>114508</v>
+        <v>114532</v>
       </c>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>3815</v>
       </c>
@@ -2794,11 +2925,11 @@
         <v>2</v>
       </c>
       <c r="C197" s="1">
-        <v>114535</v>
+        <v>114511</v>
       </c>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>3815</v>
       </c>
@@ -2806,11 +2937,11 @@
         <v>2</v>
       </c>
       <c r="C198" s="1">
-        <v>114511</v>
+        <v>114535</v>
       </c>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>3868</v>
       </c>
@@ -2822,7 +2953,7 @@
       </c>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>3870</v>
       </c>
@@ -2834,7 +2965,7 @@
       </c>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>3871</v>
       </c>
@@ -2842,11 +2973,11 @@
         <v>2</v>
       </c>
       <c r="C201" s="1">
-        <v>207351</v>
-      </c>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116424</v>
+      </c>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>3871</v>
       </c>
@@ -2858,7 +2989,7 @@
       </c>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>3871</v>
       </c>
@@ -2866,11 +2997,11 @@
         <v>2</v>
       </c>
       <c r="C203" s="1">
-        <v>116424</v>
-      </c>
-      <c r="D203" s="1"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>207351</v>
+      </c>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>3916</v>
       </c>
@@ -2880,7 +3011,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>3940</v>
       </c>
@@ -2890,7 +3021,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>3942</v>
       </c>
@@ -2898,11 +3029,11 @@
         <v>2</v>
       </c>
       <c r="C206" s="1">
-        <v>138365</v>
+        <v>116193</v>
       </c>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>3942</v>
       </c>
@@ -2910,11 +3041,11 @@
         <v>2</v>
       </c>
       <c r="C207" s="1">
-        <v>116193</v>
+        <v>138365</v>
       </c>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>3945</v>
       </c>
@@ -2924,7 +3055,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>3952</v>
       </c>
@@ -2934,7 +3065,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>4111</v>
       </c>
@@ -2946,7 +3077,7 @@
       </c>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>4112</v>
       </c>
@@ -2954,11 +3085,11 @@
         <v>2</v>
       </c>
       <c r="C211" s="1">
-        <v>321083</v>
+        <v>123789</v>
       </c>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>4112</v>
       </c>
@@ -2966,11 +3097,11 @@
         <v>2</v>
       </c>
       <c r="C212" s="1">
-        <v>260465</v>
+        <v>204637</v>
       </c>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>4112</v>
       </c>
@@ -2978,11 +3109,11 @@
         <v>2</v>
       </c>
       <c r="C213" s="1">
-        <v>204637</v>
+        <v>260465</v>
       </c>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>4112</v>
       </c>
@@ -2990,11 +3121,11 @@
         <v>2</v>
       </c>
       <c r="C214" s="1">
-        <v>123789</v>
+        <v>321083</v>
       </c>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>4124</v>
       </c>
@@ -3004,19 +3135,19 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>4144</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C216" s="1">
-        <v>97945</v>
-      </c>
-      <c r="D216" s="1"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>4172</v>
       </c>
@@ -3026,7 +3157,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>4669</v>
       </c>
@@ -3036,7 +3167,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>4670</v>
       </c>
@@ -3046,7 +3177,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>4717</v>
       </c>
@@ -3054,11 +3185,11 @@
         <v>2</v>
       </c>
       <c r="C220" s="1">
-        <v>138096</v>
+        <v>137678</v>
       </c>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>4717</v>
       </c>
@@ -3066,11 +3197,11 @@
         <v>2</v>
       </c>
       <c r="C221" s="1">
-        <v>137678</v>
+        <v>138096</v>
       </c>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>4736</v>
       </c>
@@ -3080,7 +3211,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>4738</v>
       </c>
@@ -3088,11 +3219,11 @@
         <v>2</v>
       </c>
       <c r="C223" s="1">
-        <v>191137</v>
-      </c>
-      <c r="D223" s="1"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186856</v>
+      </c>
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>4738</v>
       </c>
@@ -3100,11 +3231,11 @@
         <v>2</v>
       </c>
       <c r="C224" s="1">
-        <v>186856</v>
-      </c>
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>191137</v>
+      </c>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>4744</v>
       </c>
@@ -3116,19 +3247,19 @@
       </c>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>4904</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C226" s="1">
-        <v>137860</v>
-      </c>
-      <c r="D226" s="1"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C226" s="1"/>
+      <c r="D226" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>4906</v>
       </c>
@@ -3136,11 +3267,11 @@
         <v>2</v>
       </c>
       <c r="C227" s="1">
-        <v>397362</v>
+        <v>386487</v>
       </c>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>4906</v>
       </c>
@@ -3148,11 +3279,11 @@
         <v>2</v>
       </c>
       <c r="C228" s="1">
-        <v>386487</v>
+        <v>397362</v>
       </c>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>4972</v>
       </c>
@@ -3162,7 +3293,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>4976</v>
       </c>
@@ -3172,7 +3303,7 @@
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>5006</v>
       </c>
@@ -3182,7 +3313,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>5015</v>
       </c>
@@ -3192,7 +3323,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>5016</v>
       </c>
@@ -3202,9 +3333,9 @@
       <c r="C233" s="1">
         <v>333018</v>
       </c>
-      <c r="D233" s="1"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D233" s="9"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>5017</v>
       </c>
@@ -3214,19 +3345,19 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>5146</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C235" s="1">
-        <v>178672</v>
-      </c>
-      <c r="D235" s="1"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C235" s="1"/>
+      <c r="D235" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>5277</v>
       </c>
@@ -3238,7 +3369,7 @@
       </c>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>5336</v>
       </c>
@@ -3248,9 +3379,9 @@
       <c r="C237" s="1">
         <v>137860</v>
       </c>
-      <c r="D237" s="1"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D237" s="9"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>5556</v>
       </c>
@@ -3260,7 +3391,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="2"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>5558</v>
       </c>
@@ -3272,7 +3403,7 @@
       </c>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>5569</v>
       </c>
@@ -3282,7 +3413,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>5575</v>
       </c>
@@ -3292,7 +3423,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>5578</v>
       </c>
@@ -3302,7 +3433,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="2"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>5601</v>
       </c>
@@ -3314,7 +3445,7 @@
       </c>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>5602</v>
       </c>
@@ -3326,7 +3457,7 @@
       </c>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>5615</v>
       </c>
@@ -3336,7 +3467,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>5618</v>
       </c>
@@ -3348,7 +3479,7 @@
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>5619</v>
       </c>
@@ -3358,19 +3489,19 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>5621</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C248" s="1">
         <v>48161</v>
       </c>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>5634</v>
       </c>
@@ -3380,7 +3511,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="2"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>5635</v>
       </c>
@@ -3390,7 +3521,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>5636</v>
       </c>
@@ -3400,7 +3531,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>5647</v>
       </c>
@@ -3410,7 +3541,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="2"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>5648</v>
       </c>
@@ -3418,11 +3549,11 @@
         <v>2</v>
       </c>
       <c r="C253" s="1">
-        <v>186395</v>
+        <v>183201</v>
       </c>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>5648</v>
       </c>
@@ -3430,11 +3561,11 @@
         <v>2</v>
       </c>
       <c r="C254" s="1">
-        <v>183201</v>
+        <v>186395</v>
       </c>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>5651</v>
       </c>
@@ -3446,7 +3577,7 @@
       </c>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>5666</v>
       </c>
@@ -3456,7 +3587,7 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>5669</v>
       </c>
@@ -3466,7 +3597,7 @@
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>5681</v>
       </c>
@@ -3476,7 +3607,7 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>5700</v>
       </c>
@@ -3486,7 +3617,7 @@
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>5710</v>
       </c>
@@ -3494,11 +3625,11 @@
         <v>2</v>
       </c>
       <c r="C260" s="1">
-        <v>243543</v>
+        <v>178674</v>
       </c>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>5710</v>
       </c>
@@ -3506,11 +3637,11 @@
         <v>2</v>
       </c>
       <c r="C261" s="1">
-        <v>178674</v>
+        <v>243543</v>
       </c>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>5711</v>
       </c>
@@ -3520,9 +3651,9 @@
       <c r="C262" s="1">
         <v>178672</v>
       </c>
-      <c r="D262" s="1"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D262" s="9"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>5715</v>
       </c>
@@ -3532,7 +3663,7 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>5716</v>
       </c>
@@ -3542,7 +3673,7 @@
       <c r="C264" s="1"/>
       <c r="D264" s="2"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>5717</v>
       </c>
@@ -3552,7 +3683,7 @@
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>5728</v>
       </c>
@@ -3560,11 +3691,11 @@
         <v>2</v>
       </c>
       <c r="C266" s="1">
-        <v>236090</v>
+        <v>159938</v>
       </c>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>5728</v>
       </c>
@@ -3572,11 +3703,11 @@
         <v>2</v>
       </c>
       <c r="C267" s="1">
-        <v>159938</v>
+        <v>236090</v>
       </c>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>5733</v>
       </c>
@@ -3586,21 +3717,21 @@
       <c r="C268" s="1">
         <v>159958</v>
       </c>
-      <c r="D268" s="2"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D268" s="9"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>6315</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C269" s="1">
-        <v>159958</v>
-      </c>
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C269" s="1"/>
+      <c r="D269" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>6319</v>
       </c>
@@ -3610,7 +3741,7 @@
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>6576</v>
       </c>
@@ -3620,7 +3751,7 @@
       <c r="C271" s="1"/>
       <c r="D271" s="2"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>6577</v>
       </c>
@@ -3630,19 +3761,19 @@
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>6596</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C273" s="1">
-        <v>146708</v>
-      </c>
-      <c r="D273" s="2"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C273" s="1"/>
+      <c r="D273" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>6671</v>
       </c>
@@ -3652,7 +3783,7 @@
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>6675</v>
       </c>
@@ -3664,7 +3795,7 @@
       </c>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>6693</v>
       </c>
@@ -3674,7 +3805,7 @@
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>6694</v>
       </c>
@@ -3684,7 +3815,7 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>6861</v>
       </c>
@@ -3696,7 +3827,7 @@
       </c>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>6862</v>
       </c>
@@ -3708,7 +3839,7 @@
       </c>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>6874</v>
       </c>
@@ -3718,9 +3849,9 @@
       <c r="C280" s="1">
         <v>173536</v>
       </c>
-      <c r="D280" s="1"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D280" s="9"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>6879</v>
       </c>
@@ -3728,11 +3859,11 @@
         <v>2</v>
       </c>
       <c r="C281" s="1">
-        <v>172225</v>
+        <v>172221</v>
       </c>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>6879</v>
       </c>
@@ -3740,11 +3871,11 @@
         <v>2</v>
       </c>
       <c r="C282" s="1">
-        <v>172221</v>
+        <v>172225</v>
       </c>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>6885</v>
       </c>
@@ -3756,7 +3887,7 @@
       </c>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>7012</v>
       </c>
@@ -3768,19 +3899,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>7013</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C285" s="1">
-        <v>173536</v>
-      </c>
-      <c r="D285" s="1"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C285" s="1"/>
+      <c r="D285" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>7187</v>
       </c>
@@ -3788,11 +3919,11 @@
         <v>2</v>
       </c>
       <c r="C286" s="1">
-        <v>177067</v>
+        <v>177025</v>
       </c>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>7187</v>
       </c>
@@ -3800,11 +3931,11 @@
         <v>2</v>
       </c>
       <c r="C287" s="1">
-        <v>177025</v>
+        <v>177067</v>
       </c>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>7188</v>
       </c>
@@ -3812,11 +3943,11 @@
         <v>2</v>
       </c>
       <c r="C288" s="1">
-        <v>177069</v>
+        <v>177026</v>
       </c>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>7188</v>
       </c>
@@ -3824,11 +3955,11 @@
         <v>2</v>
       </c>
       <c r="C289" s="1">
-        <v>177026</v>
+        <v>177069</v>
       </c>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>7194</v>
       </c>
@@ -3836,11 +3967,11 @@
         <v>2</v>
       </c>
       <c r="C290" s="1">
-        <v>177068</v>
+        <v>176581</v>
       </c>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>7194</v>
       </c>
@@ -3852,7 +3983,7 @@
       </c>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>7194</v>
       </c>
@@ -3860,11 +3991,11 @@
         <v>2</v>
       </c>
       <c r="C292" s="1">
-        <v>176581</v>
+        <v>177068</v>
       </c>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>7222</v>
       </c>
@@ -3874,7 +4005,7 @@
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>7230</v>
       </c>
@@ -3884,7 +4015,7 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>7268</v>
       </c>
@@ -3894,7 +4025,7 @@
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>7294</v>
       </c>
@@ -3906,7 +4037,7 @@
       </c>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>7317</v>
       </c>
@@ -3918,7 +4049,7 @@
       </c>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>7462</v>
       </c>
@@ -3930,7 +4061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>7463</v>
       </c>
@@ -3942,19 +4073,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>7656</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C300" s="1">
-        <v>188629</v>
-      </c>
-      <c r="D300" s="1"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C300" s="1"/>
+      <c r="D300" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>7658</v>
       </c>
@@ -3964,9 +4095,9 @@
       <c r="C301" s="1">
         <v>188629</v>
       </c>
-      <c r="D301" s="1"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D301" s="9"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>7708</v>
       </c>
@@ -3976,7 +4107,7 @@
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>7722</v>
       </c>
@@ -3986,7 +4117,7 @@
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>7905</v>
       </c>
@@ -3996,9 +4127,9 @@
       <c r="C304" s="1">
         <v>196913</v>
       </c>
-      <c r="D304" s="1"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D304" s="9"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>7909</v>
       </c>
@@ -4006,11 +4137,11 @@
         <v>2</v>
       </c>
       <c r="C305" s="1">
-        <v>193829</v>
+        <v>193794</v>
       </c>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>7909</v>
       </c>
@@ -4018,11 +4149,11 @@
         <v>2</v>
       </c>
       <c r="C306" s="1">
-        <v>193794</v>
+        <v>193829</v>
       </c>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>7946</v>
       </c>
@@ -4030,11 +4161,11 @@
         <v>2</v>
       </c>
       <c r="C307" s="1">
-        <v>201047</v>
+        <v>200616</v>
       </c>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>7946</v>
       </c>
@@ -4042,11 +4173,11 @@
         <v>2</v>
       </c>
       <c r="C308" s="1">
-        <v>200616</v>
+        <v>201047</v>
       </c>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>7969</v>
       </c>
@@ -4056,7 +4187,7 @@
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>7993</v>
       </c>
@@ -4068,7 +4199,7 @@
       </c>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>8030</v>
       </c>
@@ -4076,11 +4207,11 @@
         <v>2</v>
       </c>
       <c r="C311" s="1">
-        <v>201693</v>
+        <v>201682</v>
       </c>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>8030</v>
       </c>
@@ -4088,11 +4219,11 @@
         <v>2</v>
       </c>
       <c r="C312" s="1">
-        <v>201682</v>
+        <v>201693</v>
       </c>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>8517</v>
       </c>
@@ -4104,7 +4235,7 @@
       </c>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>8607</v>
       </c>
@@ -4116,7 +4247,7 @@
       </c>
       <c r="D314" s="2"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>8813</v>
       </c>
@@ -4126,9 +4257,9 @@
       <c r="C315" s="1">
         <v>209488</v>
       </c>
-      <c r="D315" s="1"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D315" s="9"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>8815</v>
       </c>
@@ -4136,11 +4267,11 @@
         <v>2</v>
       </c>
       <c r="C316" s="1">
-        <v>214294</v>
-      </c>
-      <c r="D316" s="1"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+        <v>213163</v>
+      </c>
+      <c r="D316" s="9"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>8815</v>
       </c>
@@ -4150,45 +4281,43 @@
       <c r="C317" s="1">
         <v>214294</v>
       </c>
-      <c r="D317" s="2"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D317" s="9"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>8815</v>
+        <v>8828</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C318" s="1">
-        <v>213163</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C318" s="1"/>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>8828</v>
+        <v>8839</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C319" s="1"/>
-      <c r="D319" s="1"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D319" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>8839</v>
+        <v>8891</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C320" s="1">
-        <v>209488</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C320" s="1"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>8891</v>
+        <v>8908</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>28</v>
@@ -4196,31 +4325,31 @@
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>8908</v>
+        <v>8915</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C322" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C322" s="1">
+        <v>302693</v>
+      </c>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>8915</v>
+        <v>8924</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C323" s="1">
-        <v>302693</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C323" s="1"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>8924</v>
+        <v>8958</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>28</v>
@@ -4228,9 +4357,9 @@
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>8958</v>
+        <v>9131</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>28</v>
@@ -4238,9 +4367,9 @@
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>9131</v>
+        <v>9137</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>28</v>
@@ -4248,9 +4377,9 @@
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>9137</v>
+        <v>9139</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>28</v>
@@ -4258,9 +4387,9 @@
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>9139</v>
+        <v>9148</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>28</v>
@@ -4268,9 +4397,9 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>9148</v>
+        <v>9174</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>28</v>
@@ -4278,9 +4407,9 @@
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>9174</v>
+        <v>9185</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>28</v>
@@ -4288,9 +4417,9 @@
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>9185</v>
+        <v>9188</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>28</v>
@@ -4298,9 +4427,9 @@
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>9188</v>
+        <v>9201</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>28</v>
@@ -4308,9 +4437,9 @@
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>9201</v>
+        <v>9202</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>28</v>
@@ -4318,9 +4447,9 @@
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>9202</v>
+        <v>9204</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>28</v>
@@ -4328,9 +4457,9 @@
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>9204</v>
+        <v>9275</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>28</v>
@@ -4338,9 +4467,9 @@
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>9275</v>
+        <v>9302</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>28</v>
@@ -4348,9 +4477,9 @@
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>9302</v>
+        <v>9303</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>28</v>
@@ -4358,9 +4487,9 @@
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>9303</v>
+        <v>9312</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>28</v>
@@ -4368,9 +4497,9 @@
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>9312</v>
+        <v>9314</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>28</v>
@@ -4378,9 +4507,9 @@
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>9314</v>
+        <v>9317</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>28</v>
@@ -4388,9 +4517,9 @@
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>9317</v>
+        <v>9319</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>28</v>
@@ -4398,9 +4527,9 @@
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>9319</v>
+        <v>9320</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>28</v>
@@ -4408,9 +4537,9 @@
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>9320</v>
+        <v>9335</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>28</v>
@@ -4418,9 +4547,9 @@
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>9335</v>
+        <v>9337</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>28</v>
@@ -4428,9 +4557,9 @@
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>9337</v>
+        <v>9370</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>28</v>
@@ -4438,9 +4567,9 @@
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>9370</v>
+        <v>9379</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>28</v>
@@ -4448,9 +4577,9 @@
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>9379</v>
+        <v>9411</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>28</v>
@@ -4458,9 +4587,9 @@
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>9411</v>
+        <v>9500</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>28</v>
@@ -4468,9 +4597,9 @@
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>9500</v>
+        <v>9697</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>28</v>
@@ -4478,9 +4607,9 @@
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>9697</v>
+        <v>9698</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>28</v>
@@ -4488,9 +4617,9 @@
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>9698</v>
+        <v>9702</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>28</v>
@@ -4498,17 +4627,19 @@
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>9702</v>
+        <v>9899</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C352" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C352" s="1">
+        <v>292532</v>
+      </c>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>9899</v>
       </c>
@@ -4520,53 +4651,53 @@
       </c>
       <c r="D353" s="2"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>9899</v>
+        <v>9907</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C354" s="1">
-        <v>292532</v>
+        <v>290530</v>
       </c>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>9907</v>
+        <v>9986</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C355" s="1">
-        <v>290530</v>
+        <v>380319</v>
       </c>
       <c r="D355" s="1"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>9986</v>
+        <v>10004</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C356" s="1">
-        <v>380319</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C356" s="1"/>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>10004</v>
+        <v>10120</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C357" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C357" s="1">
+        <v>229314</v>
+      </c>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>10120</v>
       </c>
@@ -4576,33 +4707,33 @@
       <c r="C358" s="1">
         <v>416904</v>
       </c>
-      <c r="D358" s="1"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D358" s="9"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>10120</v>
+        <v>10125</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C359" s="1">
-        <v>229314</v>
-      </c>
-      <c r="D359" s="1"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C359" s="1"/>
+      <c r="D359" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>10125</v>
+        <v>10139</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C360" s="1">
-        <v>230140</v>
+        <v>231781</v>
       </c>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>10139</v>
       </c>
@@ -4614,31 +4745,29 @@
       </c>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>10139</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>10144</v>
+      </c>
+      <c r="B362" s="1"/>
       <c r="C362" s="1">
-        <v>231781</v>
-      </c>
-      <c r="D362" s="1"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230140</v>
+      </c>
+      <c r="D362" s="9"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>10144</v>
+        <v>10200</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C363" s="1">
-        <v>230140</v>
+        <v>237940</v>
       </c>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>10200</v>
       </c>
@@ -4650,19 +4779,19 @@
       </c>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>10200</v>
+        <v>10201</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C365" s="1">
-        <v>237940</v>
-      </c>
-      <c r="D365" s="1"/>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+        <v>237941</v>
+      </c>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>10201</v>
       </c>
@@ -4674,19 +4803,19 @@
       </c>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>10201</v>
+        <v>10202</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C367" s="1">
-        <v>237941</v>
-      </c>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+        <v>237942</v>
+      </c>
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>10202</v>
       </c>
@@ -4698,43 +4827,43 @@
       </c>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>10202</v>
+        <v>10214</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C369" s="1">
-        <v>237942</v>
+        <v>281555</v>
       </c>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>10214</v>
+        <v>10215</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C370" s="1">
-        <v>281555</v>
+        <v>281556</v>
       </c>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>10215</v>
+        <v>10477</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C371" s="1">
-        <v>281556</v>
+        <v>236091</v>
       </c>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>10477</v>
       </c>
@@ -4746,21 +4875,19 @@
       </c>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>10477</v>
+        <v>10538</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C373" s="1">
-        <v>236091</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>10538</v>
+        <v>10610</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>28</v>
@@ -4768,9 +4895,9 @@
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>10610</v>
+        <v>10637</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>28</v>
@@ -4778,29 +4905,31 @@
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>10637</v>
+        <v>10754</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C376" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C376" s="1">
+        <v>247989</v>
+      </c>
       <c r="D376" s="1"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>10754</v>
+        <v>10761</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C377" s="1">
-        <v>247989</v>
+        <v>246664</v>
       </c>
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>10761</v>
       </c>
@@ -4812,21 +4941,19 @@
       </c>
       <c r="D378" s="1"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>10761</v>
+        <v>10797</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C379" s="1">
-        <v>246664</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C379" s="1"/>
       <c r="D379" s="1"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>10797</v>
+        <v>10828</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>28</v>
@@ -4834,9 +4961,9 @@
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>10828</v>
+        <v>10851</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>28</v>
@@ -4844,9 +4971,9 @@
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>10851</v>
+        <v>10852</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>28</v>
@@ -4854,9 +4981,9 @@
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>10852</v>
+        <v>10853</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>28</v>
@@ -4864,9 +4991,9 @@
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>10853</v>
+        <v>10854</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>28</v>
@@ -4874,9 +5001,9 @@
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>10854</v>
+        <v>10855</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>28</v>
@@ -4884,9 +5011,9 @@
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>10855</v>
+        <v>10856</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>28</v>
@@ -4894,9 +5021,9 @@
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>10856</v>
+        <v>10857</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>28</v>
@@ -4904,9 +5031,9 @@
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>10857</v>
+        <v>10858</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>28</v>
@@ -4914,19 +5041,21 @@
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>10858</v>
+        <v>10878</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C389" s="1"/>
-      <c r="D389" s="1"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D389" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>10878</v>
+        <v>10881</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>2</v>
@@ -4934,21 +5063,21 @@
       <c r="C390" s="1">
         <v>247874</v>
       </c>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D390" s="9"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>10881</v>
+        <v>10882</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C391" s="1">
-        <v>247874</v>
-      </c>
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+        <v>248033</v>
+      </c>
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>10882</v>
       </c>
@@ -4960,21 +5089,19 @@
       </c>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>10882</v>
+        <v>10898</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C393" s="1">
-        <v>248033</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>10898</v>
+        <v>10900</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>28</v>
@@ -4982,9 +5109,9 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>10900</v>
+        <v>10926</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>28</v>
@@ -4992,111 +5119,113 @@
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>10926</v>
+        <v>10933</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C396" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C396" s="1">
+        <v>260709</v>
+      </c>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>10933</v>
+        <v>10977</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C397" s="1">
-        <v>260709</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C397" s="1"/>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>10977</v>
+        <v>10995</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C398" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C398" s="1">
+        <v>261142</v>
+      </c>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>10995</v>
+        <v>11005</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C399" s="1">
-        <v>261142</v>
-      </c>
-      <c r="D399" s="1"/>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+        <v>255135</v>
+      </c>
+      <c r="D399" s="9"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>11005</v>
+        <v>11006</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C400" s="1">
-        <v>255135</v>
-      </c>
-      <c r="D400" s="2"/>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C400" s="1"/>
+      <c r="D400" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>11006</v>
+        <v>11007</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C401" s="1">
-        <v>255135</v>
-      </c>
-      <c r="D401" s="2"/>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+        <v>255134</v>
+      </c>
+      <c r="D401" s="9"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>11007</v>
+        <v>11008</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C402" s="1">
-        <v>255134</v>
-      </c>
-      <c r="D402" s="2"/>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C402" s="1"/>
+      <c r="D402" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>11008</v>
+        <v>11012</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C403" s="1">
-        <v>255134</v>
-      </c>
-      <c r="D403" s="2"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+        <v>207399</v>
+      </c>
+      <c r="D403" s="1"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>11012</v>
+        <v>11015</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C404" s="1">
-        <v>207399</v>
+        <v>256069</v>
       </c>
       <c r="D404" s="1"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>11015</v>
       </c>
@@ -5104,11 +5233,11 @@
         <v>2</v>
       </c>
       <c r="C405" s="1">
-        <v>256082</v>
+        <v>256074</v>
       </c>
       <c r="D405" s="1"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>11015</v>
       </c>
@@ -5116,23 +5245,23 @@
         <v>2</v>
       </c>
       <c r="C406" s="1">
-        <v>256074</v>
+        <v>256082</v>
       </c>
       <c r="D406" s="1"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>11015</v>
+        <v>11016</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C407" s="1">
-        <v>256069</v>
+        <v>256068</v>
       </c>
       <c r="D407" s="1"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>11016</v>
       </c>
@@ -5144,139 +5273,137 @@
       </c>
       <c r="D408" s="1"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>11016</v>
+        <v>11068</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C409" s="1">
-        <v>256068</v>
-      </c>
-      <c r="D409" s="1"/>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+        <v>256705</v>
+      </c>
+      <c r="D409" s="9"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>11068</v>
+        <v>11413</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C410" s="1">
-        <v>256705</v>
-      </c>
-      <c r="D410" s="1"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>11413</v>
+        <v>11468</v>
       </c>
       <c r="B411" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C411" s="1">
+        <v>261036</v>
+      </c>
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>11495</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C412" s="1">
+        <v>313675</v>
+      </c>
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>11505</v>
+      </c>
+      <c r="B413" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A412" s="1">
-        <v>11468</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C412" s="1">
-        <v>261036</v>
-      </c>
-      <c r="D412" s="1"/>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A413" s="1">
-        <v>11495</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C413" s="1">
-        <v>313675</v>
-      </c>
-      <c r="D413" s="1"/>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C413" s="1"/>
+      <c r="D413" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>11505</v>
+        <v>11527</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C414" s="1">
-        <v>256705</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C414" s="1"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>11527</v>
+        <v>11550</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D415" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>11550</v>
+        <v>11557</v>
       </c>
       <c r="B416" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C416" s="1">
+        <v>276593</v>
+      </c>
+      <c r="D416" s="9"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>11559</v>
+      </c>
+      <c r="B417" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C416" s="1"/>
-      <c r="D416" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A417" s="1">
-        <v>11557</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C417" s="1">
-        <v>276593</v>
-      </c>
-      <c r="D417" s="1"/>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C417" s="1"/>
+      <c r="D417" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>11559</v>
+        <v>11570</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C418" s="1">
-        <v>293752</v>
+        <v>397830</v>
       </c>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>11570</v>
+        <v>11719</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C419" s="1">
-        <v>397830</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C419" s="1"/>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>11719</v>
+        <v>11934</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>28</v>
@@ -5284,9 +5411,9 @@
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>11934</v>
+        <v>12257</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>28</v>
@@ -5294,17 +5421,19 @@
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>12257</v>
+        <v>12263</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C422" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C422" s="1">
+        <v>276587</v>
+      </c>
       <c r="D422" s="1"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>12263</v>
       </c>
@@ -5316,67 +5445,65 @@
       </c>
       <c r="D423" s="1"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>12263</v>
+        <v>12268</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C424" s="1">
-        <v>276587</v>
+        <v>281001</v>
       </c>
       <c r="D424" s="1"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>12268</v>
+        <v>12269</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C425" s="1">
-        <v>281001</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C425" s="1"/>
       <c r="D425" s="1"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>12269</v>
+        <v>12270</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C426" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C426" s="1">
+        <v>386710</v>
+      </c>
       <c r="D426" s="1"/>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>12270</v>
+        <v>12276</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C427" s="1">
-        <v>386710</v>
-      </c>
-      <c r="D427" s="1"/>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C427" s="1"/>
+      <c r="D427" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>12276</v>
+        <v>12388</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C428" s="1">
-        <v>276593</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C428" s="1"/>
       <c r="D428" s="1"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>12388</v>
+        <v>12395</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>28</v>
@@ -5384,77 +5511,79 @@
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>12395</v>
+        <v>12457</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C430" s="1"/>
-      <c r="D430" s="1"/>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D430" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>12457</v>
+        <v>12461</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C431" s="1">
-        <v>415446</v>
-      </c>
-      <c r="D431" s="2"/>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C431" s="1"/>
+      <c r="D431" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>12461</v>
+        <v>12546</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C432" s="1">
-        <v>276593</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C432" s="1"/>
       <c r="D432" s="1"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>12546</v>
+        <v>12606</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C433" s="1"/>
-      <c r="D433" s="1"/>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D433" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>12606</v>
+        <v>12607</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C434" s="1">
-        <v>293752</v>
-      </c>
-      <c r="D434" s="1"/>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C434" s="1"/>
+      <c r="D434" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>12607</v>
+        <v>12608</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C435" s="1">
-        <v>293752</v>
-      </c>
-      <c r="D435" s="1"/>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C435" s="1"/>
+      <c r="D435" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>12608</v>
+        <v>12609</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>2</v>
@@ -5462,21 +5591,21 @@
       <c r="C436" s="1">
         <v>293752</v>
       </c>
-      <c r="D436" s="1"/>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D436" s="9"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>12609</v>
+        <v>12610</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C437" s="1">
-        <v>293752</v>
+        <v>282841</v>
       </c>
       <c r="D437" s="1"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>12610</v>
       </c>
@@ -5488,113 +5617,111 @@
       </c>
       <c r="D438" s="1"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>12610</v>
+        <v>12656</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C439" s="1">
-        <v>282841</v>
+        <v>292700</v>
       </c>
       <c r="D439" s="1"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>12656</v>
+        <v>12808</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C440" s="1">
-        <v>292700</v>
-      </c>
-      <c r="D440" s="1"/>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+        <v>294730</v>
+      </c>
+      <c r="D440" s="9"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>12808</v>
+        <v>12812</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C441" s="1">
-        <v>294730</v>
-      </c>
-      <c r="D441" s="1"/>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C441" s="1"/>
+      <c r="D441" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>12812</v>
+        <v>13369</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C442" s="1">
-        <v>294730</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C442" s="1"/>
       <c r="D442" s="1"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>13369</v>
+        <v>13371</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C443" s="1"/>
-      <c r="D443" s="1"/>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D443" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>13371</v>
+        <v>13571</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C444" s="1">
+        <v>28</v>
+      </c>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>13572</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C445" s="1">
+        <v>325590</v>
+      </c>
+      <c r="D445" s="1"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>13608</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C446" s="1">
         <v>304349</v>
       </c>
-      <c r="D444" s="1"/>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A445" s="1">
-        <v>13571</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C445" s="1"/>
-      <c r="D445" s="1"/>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A446" s="1">
-        <v>13572</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C446" s="1">
-        <v>325590</v>
-      </c>
-      <c r="D446" s="1"/>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D446" s="9"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>13608</v>
+        <v>13621</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C447" s="1">
-        <v>304349</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C447" s="1"/>
       <c r="D447" s="1"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>13621</v>
+        <v>13623</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>28</v>
@@ -5602,9 +5729,9 @@
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>13623</v>
+        <v>13624</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>28</v>
@@ -5612,53 +5739,53 @@
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>13624</v>
+        <v>13625</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C450" s="1"/>
-      <c r="D450" s="1"/>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D450" s="9"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>13625</v>
+        <v>13636</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C451" s="1">
-        <v>214294</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C451" s="1"/>
       <c r="D451" s="1"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>13625</v>
+        <v>13653</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C452" s="1">
-        <v>213163</v>
-      </c>
-      <c r="D452" s="1"/>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>13636</v>
+        <v>13654</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C453" s="1"/>
-      <c r="D453" s="1"/>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C453" s="1">
+        <v>310743</v>
+      </c>
+      <c r="D453" s="9"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>13653</v>
+        <v>13655</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>4</v>
@@ -5668,175 +5795,175 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>13654</v>
+        <v>13661</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C455" s="1">
-        <v>310743</v>
-      </c>
-      <c r="D455" s="2"/>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C455" s="1"/>
+      <c r="D455" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>13655</v>
+        <v>13662</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C456" s="1"/>
-      <c r="D456" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C456" s="1">
+        <v>292483</v>
+      </c>
+      <c r="D456" s="9"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>13661</v>
+        <v>13664</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C457" s="1">
-        <v>292483</v>
+        <v>304236</v>
       </c>
       <c r="D457" s="1"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>13662</v>
+        <v>13664</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C458" s="1">
-        <v>292483</v>
+        <v>397828</v>
       </c>
       <c r="D458" s="1"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>13664</v>
+        <v>13671</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C459" s="1">
-        <v>397828</v>
+        <v>304366</v>
       </c>
       <c r="D459" s="1"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>13664</v>
+        <v>13671</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C460" s="1">
-        <v>304236</v>
+        <v>304813</v>
       </c>
       <c r="D460" s="1"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>13671</v>
+        <v>13685</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C461" s="1">
-        <v>304813</v>
+        <v>295362</v>
       </c>
       <c r="D461" s="1"/>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>13671</v>
+        <v>13685</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C462" s="1">
-        <v>304366</v>
+        <v>295366</v>
       </c>
       <c r="D462" s="1"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>13685</v>
+        <v>13686</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C463" s="1">
-        <v>295366</v>
-      </c>
-      <c r="D463" s="1"/>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+        <v>295365</v>
+      </c>
+      <c r="D463" s="2"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>13685</v>
+        <v>13688</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C464" s="1">
-        <v>295362</v>
-      </c>
-      <c r="D464" s="1"/>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+        <v>292484</v>
+      </c>
+      <c r="D464" s="2"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>13686</v>
+        <v>13711</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C465" s="1">
-        <v>295365</v>
-      </c>
-      <c r="D465" s="2"/>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+        <v>292407</v>
+      </c>
+      <c r="D465" s="1"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>13688</v>
+        <v>13712</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C466" s="1">
-        <v>292484</v>
-      </c>
-      <c r="D466" s="2"/>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+        <v>292408</v>
+      </c>
+      <c r="D466" s="1"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>13711</v>
+        <v>13714</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C467" s="1">
-        <v>292407</v>
-      </c>
-      <c r="D467" s="1"/>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C467" s="1"/>
+      <c r="D467" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>13712</v>
+        <v>13714</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C468" s="1">
-        <v>292408</v>
+        <v>295361</v>
       </c>
       <c r="D468" s="1"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>13714</v>
       </c>
@@ -5844,131 +5971,127 @@
         <v>2</v>
       </c>
       <c r="C469" s="1">
-        <v>333034</v>
+        <v>320977</v>
       </c>
       <c r="D469" s="1"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>13714</v>
+        <v>13730</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C470" s="1">
-        <v>320977</v>
-      </c>
-      <c r="D470" s="1"/>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C470" s="1"/>
+      <c r="D470" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>13714</v>
+        <v>13736</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C471" s="1">
-        <v>295361</v>
-      </c>
-      <c r="D471" s="1"/>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146598</v>
+      </c>
+      <c r="D471" s="2"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>13730</v>
+        <v>13736</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C472" s="1">
-        <v>276593</v>
+        <v>180777</v>
       </c>
       <c r="D472" s="1"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>13736</v>
+        <v>13742</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C473" s="1">
-        <v>180777</v>
+        <v>352370</v>
       </c>
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>13736</v>
+        <v>13752</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C474" s="1">
-        <v>146598</v>
-      </c>
-      <c r="D474" s="2"/>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>13742</v>
+        <v>13911</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C475" s="1">
-        <v>352370</v>
-      </c>
-      <c r="D475" s="1"/>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C475" s="1"/>
+      <c r="D475" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>13752</v>
+        <v>13931</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C476" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C476" s="1">
+        <v>314786</v>
+      </c>
       <c r="D476" s="1"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>13911</v>
+        <v>13931</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C477" s="1">
-        <v>312617</v>
+        <v>314791</v>
       </c>
       <c r="D477" s="1"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>13931</v>
+        <v>14197</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C478" s="1">
-        <v>314791</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C478" s="1"/>
       <c r="D478" s="1"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>13931</v>
+        <v>14208</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C479" s="1">
-        <v>314786</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C479" s="1"/>
       <c r="D479" s="1"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>14197</v>
+        <v>14300</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>28</v>
@@ -5976,9 +6099,9 @@
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>14208</v>
+        <v>14305</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>28</v>
@@ -5986,89 +6109,89 @@
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>14300</v>
+        <v>14330</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C482" s="1"/>
-      <c r="D482" s="1"/>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D482" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>14305</v>
+        <v>14382</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C483" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C483" s="1">
+        <v>392116</v>
+      </c>
       <c r="D483" s="1"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>14330</v>
+        <v>14402</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C484" s="1">
-        <v>310743</v>
-      </c>
-      <c r="D484" s="2"/>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+        <v>312617</v>
+      </c>
+      <c r="D484" s="9"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>14382</v>
+        <v>14475</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C485" s="1">
-        <v>392116</v>
+        <v>398008</v>
       </c>
       <c r="D485" s="1"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>14402</v>
+        <v>14484</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C486" s="1">
-        <v>312617</v>
-      </c>
-      <c r="D486" s="1"/>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>14475</v>
+        <v>14561</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C487" s="1">
-        <v>398008</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C487" s="1"/>
       <c r="D487" s="1"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>14484</v>
+        <v>14581</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C488" s="1"/>
-      <c r="D488" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D488" s="1"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>14561</v>
+        <v>14605</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>28</v>
@@ -6076,259 +6199,259 @@
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>14581</v>
+        <v>14631</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C490" s="1"/>
-      <c r="D490" s="1"/>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C490" s="1">
+        <v>329950</v>
+      </c>
+      <c r="D490" s="9"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>14605</v>
+        <v>14635</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C491" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C491" s="1">
+        <v>333068</v>
+      </c>
       <c r="D491" s="1"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>14631</v>
+        <v>14646</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C492" s="1">
-        <v>329950</v>
-      </c>
-      <c r="D492" s="2"/>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C492" s="1"/>
+      <c r="D492" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>14635</v>
+        <v>14650</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C493" s="1">
-        <v>333068</v>
-      </c>
-      <c r="D493" s="1"/>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C493" s="1"/>
+      <c r="D493" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>14646</v>
+        <v>14651</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C494" s="1">
-        <v>329950</v>
-      </c>
-      <c r="D494" s="2"/>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+        <v>304815</v>
+      </c>
+      <c r="D494" s="1"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>14650</v>
+        <v>14651</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C495" s="1"/>
-      <c r="D495" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C495" s="1">
+        <v>333057</v>
+      </c>
+      <c r="D495" s="1"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>14651</v>
+        <v>14652</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C496" s="1">
-        <v>333057</v>
-      </c>
-      <c r="D496" s="1"/>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+        <v>333034</v>
+      </c>
+      <c r="D496" s="9"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>14651</v>
+        <v>14653</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C497" s="1">
-        <v>304815</v>
-      </c>
-      <c r="D497" s="1"/>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C497" s="1"/>
+      <c r="D497" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>14652</v>
+        <v>14911</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C498" s="1">
-        <v>333034</v>
+        <v>333006</v>
       </c>
       <c r="D498" s="1"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>14653</v>
+        <v>14912</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C499" s="1">
-        <v>333018</v>
-      </c>
-      <c r="D499" s="2"/>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+        <v>333008</v>
+      </c>
+      <c r="D499" s="1"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>14911</v>
+        <v>15081</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C500" s="1">
-        <v>333006</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C500" s="1"/>
       <c r="D500" s="1"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>14912</v>
+        <v>15207</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C501" s="1">
-        <v>333008</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C501" s="1"/>
       <c r="D501" s="1"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>15081</v>
+        <v>15244</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C502" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C502" s="1">
+        <v>334440</v>
+      </c>
       <c r="D502" s="1"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>15207</v>
+        <v>15244</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C503" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C503" s="1">
+        <v>336253</v>
+      </c>
       <c r="D503" s="1"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>15244</v>
+        <v>15258</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C504" s="1">
-        <v>336253</v>
-      </c>
-      <c r="D504" s="1"/>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+        <v>333091</v>
+      </c>
+      <c r="D504" s="2"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>15244</v>
+        <v>15261</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C505" s="1">
-        <v>334440</v>
+        <v>341211</v>
       </c>
       <c r="D505" s="1"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>15258</v>
+        <v>15269</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C506" s="1">
-        <v>333091</v>
-      </c>
-      <c r="D506" s="2"/>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>15261</v>
+        <v>15274</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C507" s="1">
-        <v>341211</v>
-      </c>
-      <c r="D507" s="1"/>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C507" s="1"/>
+      <c r="D507" s="2"/>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>15269</v>
+        <v>15275</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C508" s="1"/>
-      <c r="D508" s="1"/>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D508" s="2"/>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>15274</v>
+        <v>15277</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C509" s="1"/>
-      <c r="D509" s="2"/>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D509" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>15275</v>
+        <v>15299</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C510" s="1"/>
-      <c r="D510" s="2"/>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>15277</v>
+        <v>15300</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C511" s="1">
-        <v>337086</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C511" s="1"/>
       <c r="D511" s="1"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>15299</v>
+        <v>15306</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>28</v>
@@ -6336,109 +6459,113 @@
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>15300</v>
+        <v>15317</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C513" s="1"/>
-      <c r="D513" s="1"/>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C513" s="1">
+        <v>337086</v>
+      </c>
+      <c r="D513" s="9"/>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>15306</v>
+        <v>15320</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C514" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C514" s="1">
+        <v>340673</v>
+      </c>
       <c r="D514" s="1"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>15317</v>
+        <v>15320</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C515" s="1">
-        <v>337086</v>
+        <v>346975</v>
       </c>
       <c r="D515" s="1"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>15320</v>
+        <v>15335</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C516" s="1">
-        <v>346975</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C516" s="1"/>
       <c r="D516" s="1"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>15320</v>
+        <v>15387</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C517" s="1">
-        <v>340673</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C517" s="1"/>
       <c r="D517" s="1"/>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>15335</v>
+        <v>15413</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C518" s="1"/>
-      <c r="D518" s="1"/>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D518" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>15387</v>
+        <v>15414</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C519" s="1"/>
-      <c r="D519" s="1"/>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D519" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>15413</v>
+        <v>15541</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C520" s="1"/>
-      <c r="D520" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D520" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>15414</v>
+        <v>15543</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C521" s="1"/>
-      <c r="D521" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D521" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>15541</v>
+        <v>15547</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>2</v>
@@ -6446,11 +6573,11 @@
       <c r="C522" s="1">
         <v>348664</v>
       </c>
-      <c r="D522" s="1"/>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D522" s="9"/>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>15543</v>
+        <v>15549</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>2</v>
@@ -6458,35 +6585,31 @@
       <c r="C523" s="1">
         <v>348666</v>
       </c>
-      <c r="D523" s="1"/>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D523" s="9"/>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>15547</v>
+        <v>15558</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C524" s="1">
-        <v>348664</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C524" s="1"/>
       <c r="D524" s="1"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>15549</v>
+        <v>15619</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C525" s="1">
-        <v>348666</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C525" s="1"/>
       <c r="D525" s="1"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>15558</v>
+        <v>16234</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>28</v>
@@ -6494,9 +6617,9 @@
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>15619</v>
+        <v>16466</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>28</v>
@@ -6504,9 +6627,9 @@
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>16234</v>
+        <v>16474</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>28</v>
@@ -6514,9 +6637,9 @@
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>16466</v>
+        <v>16531</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>28</v>
@@ -6524,9 +6647,9 @@
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>16474</v>
+        <v>16534</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>28</v>
@@ -6534,87 +6657,87 @@
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>16531</v>
+        <v>16538</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C531" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C531" s="1">
+        <v>359796</v>
+      </c>
       <c r="D531" s="1"/>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>16534</v>
+        <v>16538</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C532" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C532" s="1">
+        <v>362305</v>
+      </c>
       <c r="D532" s="1"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>16538</v>
+        <v>16540</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C533" s="1">
-        <v>362305</v>
-      </c>
-      <c r="D533" s="1"/>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C533" s="1"/>
+      <c r="D533" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>16538</v>
+        <v>16541</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C534" s="1">
-        <v>359796</v>
-      </c>
-      <c r="D534" s="1"/>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+        <v>364494</v>
+      </c>
+      <c r="D534" s="9"/>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>16540</v>
+        <v>16557</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C535" s="1">
-        <v>364494</v>
-      </c>
-      <c r="D535" s="1"/>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C535" s="1"/>
+      <c r="D535" s="2"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>16541</v>
+        <v>16615</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C536" s="1">
-        <v>364494</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C536" s="1"/>
       <c r="D536" s="1"/>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>16557</v>
+        <v>16652</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C537" s="1"/>
-      <c r="D537" s="2"/>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>16615</v>
+        <v>16659</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>28</v>
@@ -6622,9 +6745,9 @@
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>16652</v>
+        <v>16667</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>28</v>
@@ -6632,9 +6755,9 @@
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>16659</v>
+        <v>16688</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>28</v>
@@ -6642,9 +6765,9 @@
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>16667</v>
+        <v>16703</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>28</v>
@@ -6652,9 +6775,9 @@
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>16688</v>
+        <v>16739</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>28</v>
@@ -6662,9 +6785,9 @@
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>16703</v>
+        <v>16752</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>28</v>
@@ -6672,9 +6795,9 @@
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>16739</v>
+        <v>16755</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>28</v>
@@ -6682,9 +6805,9 @@
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>16752</v>
+        <v>16764</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>28</v>
@@ -6692,9 +6815,9 @@
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>16755</v>
+        <v>16799</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>28</v>
@@ -6702,9 +6825,9 @@
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>16764</v>
+        <v>16801</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>28</v>
@@ -6712,9 +6835,9 @@
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>16799</v>
+        <v>16807</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>28</v>
@@ -6722,9 +6845,9 @@
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>16801</v>
+        <v>16810</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>28</v>
@@ -6732,9 +6855,9 @@
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>16807</v>
+        <v>16842</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>28</v>
@@ -6742,159 +6865,163 @@
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>16810</v>
+        <v>17057</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C551" s="1"/>
-      <c r="D551" s="1"/>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C551" s="1">
+        <v>359785</v>
+      </c>
+      <c r="D551" s="2"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>16842</v>
+        <v>17057</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C552" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C552" s="1">
+        <v>371397</v>
+      </c>
       <c r="D552" s="1"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>17057</v>
+        <v>17059</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C553" s="1">
-        <v>371397</v>
-      </c>
-      <c r="D553" s="1"/>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C553" s="1"/>
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>17057</v>
+        <v>17063</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C554" s="1">
-        <v>359785</v>
-      </c>
-      <c r="D554" s="2"/>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+        <v>368394</v>
+      </c>
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>17059</v>
+        <v>17063</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C555" s="1"/>
-      <c r="D555" s="2"/>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C555" s="1">
+        <v>368478</v>
+      </c>
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>17063</v>
+        <v>17072</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C556" s="1">
-        <v>368478</v>
-      </c>
-      <c r="D556" s="1"/>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C556" s="1"/>
+      <c r="D556" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>17063</v>
+        <v>17078</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C557" s="1">
-        <v>368394</v>
+        <v>362134</v>
       </c>
       <c r="D557" s="1"/>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>17072</v>
+        <v>17079</v>
       </c>
       <c r="B558" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C558" s="1">
+        <v>362135</v>
+      </c>
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>17302</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C559" s="1">
+        <v>368440</v>
+      </c>
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>17360</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C560" s="1">
+        <v>353755</v>
+      </c>
+      <c r="D560" s="1"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>17360</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C561" s="1">
+        <v>364687</v>
+      </c>
+      <c r="D561" s="1"/>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>17370</v>
+      </c>
+      <c r="B562" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C558" s="1"/>
-      <c r="D558" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A559" s="1">
-        <v>17078</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C559" s="1">
-        <v>362134</v>
-      </c>
-      <c r="D559" s="1"/>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A560" s="1">
-        <v>17079</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C560" s="1">
-        <v>362135</v>
-      </c>
-      <c r="D560" s="1"/>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A561" s="1">
-        <v>17302</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C561" s="1">
-        <v>368440</v>
-      </c>
-      <c r="D561" s="1"/>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A562" s="1">
-        <v>17360</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C562" s="1">
-        <v>364687</v>
-      </c>
-      <c r="D562" s="1"/>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C562" s="1"/>
+      <c r="D562" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>17360</v>
+        <v>17371</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C563" s="1">
-        <v>353755</v>
+        <v>373196</v>
       </c>
       <c r="D563" s="1"/>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>17370</v>
+        <v>17372</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>2</v>
@@ -6902,237 +7029,233 @@
       <c r="C564" s="1">
         <v>373197</v>
       </c>
-      <c r="D564" s="2"/>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D564" s="9"/>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>17371</v>
+        <v>17437</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C565" s="1">
-        <v>373196</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C565" s="1"/>
       <c r="D565" s="1"/>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>17372</v>
+        <v>17442</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C566" s="1">
-        <v>373197</v>
-      </c>
-      <c r="D566" s="2"/>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C566" s="1"/>
+      <c r="D566" s="1"/>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>17437</v>
+        <v>17445</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C567" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C567" s="1">
+        <v>376764</v>
+      </c>
       <c r="D567" s="1"/>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>17442</v>
+        <v>17446</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C568" s="1"/>
-      <c r="D568" s="1"/>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C568" s="1">
+        <v>377006</v>
+      </c>
+      <c r="D568" s="2"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>17445</v>
+        <v>17446</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C569" s="1">
-        <v>376764</v>
-      </c>
-      <c r="D569" s="1"/>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+        <v>377073</v>
+      </c>
+      <c r="D569" s="2"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>17446</v>
+        <v>17506</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C570" s="1">
-        <v>377073</v>
-      </c>
-      <c r="D570" s="2"/>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C570" s="1"/>
+      <c r="D570" s="1"/>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>17446</v>
+        <v>17519</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C571" s="1">
-        <v>377006</v>
-      </c>
-      <c r="D571" s="2"/>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C571" s="1"/>
+      <c r="D571" s="1"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>17506</v>
+        <v>17562</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C572" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C572" s="1">
+        <v>382671</v>
+      </c>
       <c r="D572" s="1"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>17519</v>
+        <v>17567</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C573" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C573" s="1">
+        <v>380215</v>
+      </c>
       <c r="D573" s="1"/>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>17562</v>
+        <v>17567</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C574" s="1">
-        <v>382671</v>
+        <v>380224</v>
       </c>
       <c r="D574" s="1"/>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>17567</v>
+        <v>17570</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C575" s="1">
-        <v>380224</v>
+        <v>380225</v>
       </c>
       <c r="D575" s="1"/>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>17567</v>
+        <v>17685</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C576" s="1">
-        <v>380215</v>
-      </c>
-      <c r="D576" s="1"/>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+        <v>289206</v>
+      </c>
+      <c r="D576" s="2"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>17570</v>
+        <v>17710</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C577" s="1">
-        <v>380225</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C577" s="1"/>
       <c r="D577" s="1"/>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>17685</v>
+        <v>18062</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C578" s="1">
-        <v>289206</v>
-      </c>
-      <c r="D578" s="2"/>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C578" s="1"/>
+      <c r="D578" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>17710</v>
+        <v>18064</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C579" s="1"/>
-      <c r="D579" s="1"/>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C579" s="1">
+        <v>407729</v>
+      </c>
+      <c r="D579" s="9"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>18062</v>
+        <v>18173</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C580" s="1">
-        <v>407729</v>
-      </c>
-      <c r="D580" s="1"/>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+        <v>402519</v>
+      </c>
+      <c r="D580" s="2"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>18064</v>
+        <v>18292</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C581" s="1">
-        <v>407729</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C581" s="1"/>
       <c r="D581" s="1"/>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>18173</v>
+        <v>18293</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C582" s="1">
-        <v>402519</v>
-      </c>
-      <c r="D582" s="2"/>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C582" s="1"/>
+      <c r="D582" s="1"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>18292</v>
+        <v>18330</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>18293</v>
+        <v>18331</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>18330</v>
+        <v>18334</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>27</v>
@@ -7140,141 +7263,145 @@
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>18331</v>
+        <v>18337</v>
       </c>
       <c r="B586" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C586" s="1">
+        <v>390201</v>
+      </c>
+      <c r="D586" s="1"/>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>18337</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C587" s="1">
+        <v>390208</v>
+      </c>
+      <c r="D587" s="1"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>18379</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C588" s="1"/>
+      <c r="D588" s="1"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>18393</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C589" s="1">
+        <v>390209</v>
+      </c>
+      <c r="D589" s="1"/>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>18394</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C590" s="1"/>
+      <c r="D590" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>18398</v>
+      </c>
+      <c r="B591" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C586" s="1"/>
-      <c r="D586" s="1"/>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A587" s="1">
-        <v>18334</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C587" s="1"/>
-      <c r="D587" s="1"/>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A588" s="1">
-        <v>18337</v>
-      </c>
-      <c r="B588" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C588" s="1">
-        <v>390208</v>
-      </c>
-      <c r="D588" s="1"/>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A589" s="1">
-        <v>18337</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C589" s="1">
-        <v>390201</v>
-      </c>
-      <c r="D589" s="1"/>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A590" s="1">
-        <v>18379</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C590" s="1"/>
-      <c r="D590" s="1"/>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A591" s="1">
-        <v>18393</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C591" s="1">
-        <v>390209</v>
-      </c>
-      <c r="D591" s="1"/>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C591" s="1"/>
+      <c r="D591" s="2"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>18394</v>
+        <v>18465</v>
       </c>
       <c r="B592" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C592" s="1"/>
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>18494</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C593" s="1"/>
+      <c r="D593" s="1"/>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>18528</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C594" s="1">
+        <v>383458</v>
+      </c>
+      <c r="D594" s="1"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>18529</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C595" s="1">
+        <v>397407</v>
+      </c>
+      <c r="D595" s="1"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>18534</v>
+      </c>
+      <c r="B596" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C592" s="1"/>
-      <c r="D592" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A593" s="1">
-        <v>18398</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C593" s="1"/>
-      <c r="D593" s="2"/>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A594" s="1">
-        <v>18465</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C594" s="1"/>
-      <c r="D594" s="1"/>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A595" s="1">
-        <v>18494</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C595" s="1"/>
-      <c r="D595" s="1"/>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A596" s="1">
-        <v>18528</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C596" s="1">
-        <v>383458</v>
-      </c>
-      <c r="D596" s="1"/>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C596" s="1"/>
+      <c r="D596" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>18529</v>
+        <v>18535</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C597" s="1">
-        <v>397407</v>
-      </c>
-      <c r="D597" s="1"/>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C597" s="1"/>
+      <c r="D597" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>18534</v>
+        <v>18536</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>3</v>
@@ -7284,45 +7411,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>18535</v>
+        <v>18539</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C599" s="1"/>
       <c r="D599" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>18536</v>
+        <v>18735</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C600" s="1"/>
-      <c r="D600" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D600" s="1"/>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>18539</v>
+        <v>18773</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C601" s="1"/>
-      <c r="D601" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D601" s="1"/>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>18735</v>
+        <v>18774</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>28</v>
@@ -7330,9 +7453,9 @@
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>18773</v>
+        <v>18775</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>28</v>
@@ -7340,27 +7463,31 @@
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>18774</v>
+        <v>18776</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C604" s="1"/>
-      <c r="D604" s="1"/>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D604" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>18775</v>
+        <v>18776</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C605" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C605" s="1">
+        <v>412324</v>
+      </c>
       <c r="D605" s="1"/>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>18776</v>
       </c>
@@ -7372,33 +7499,29 @@
       </c>
       <c r="D606" s="1"/>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>18776</v>
+        <v>18837</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C607" s="1">
-        <v>412324</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C607" s="1"/>
       <c r="D607" s="1"/>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>18776</v>
+        <v>18844</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C608" s="1"/>
-      <c r="D608" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D608" s="1"/>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>18837</v>
+        <v>18959</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>28</v>
@@ -7406,9 +7529,9 @@
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>18844</v>
+        <v>19046</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>28</v>
@@ -7416,137 +7539,139 @@
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>18959</v>
+        <v>19065</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C611" s="1"/>
-      <c r="D611" s="1"/>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D611" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>19046</v>
+        <v>19070</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C612" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C612" s="1">
+        <v>407135</v>
+      </c>
       <c r="D612" s="1"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>19065</v>
+        <v>19072</v>
       </c>
       <c r="B613" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C613" s="1">
+        <v>406365</v>
+      </c>
+      <c r="D613" s="1"/>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>19076</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C614" s="1">
+        <v>368343</v>
+      </c>
+      <c r="D614" s="1"/>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>19076</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C615" s="1">
+        <v>414658</v>
+      </c>
+      <c r="D615" s="2"/>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>19083</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C616" s="1">
+        <v>415446</v>
+      </c>
+      <c r="D616" s="9"/>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>19096</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C617" s="1">
+        <v>384977</v>
+      </c>
+      <c r="D617" s="1"/>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>19106</v>
+      </c>
+      <c r="B618" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C613" s="1"/>
-      <c r="D613" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A614" s="1">
-        <v>19070</v>
-      </c>
-      <c r="B614" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C614" s="1">
-        <v>407135</v>
-      </c>
-      <c r="D614" s="1"/>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A615" s="1">
-        <v>19072</v>
-      </c>
-      <c r="B615" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C615" s="1">
-        <v>406365</v>
-      </c>
-      <c r="D615" s="1"/>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A616" s="1">
-        <v>19076</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C616" s="1">
-        <v>414658</v>
-      </c>
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A617" s="1">
-        <v>19076</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C617" s="1">
-        <v>368343</v>
-      </c>
-      <c r="D617" s="1"/>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A618" s="1">
-        <v>19083</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C618" s="1">
-        <v>415446</v>
-      </c>
-      <c r="D618" s="2"/>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C618" s="1"/>
+      <c r="D618" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>19096</v>
+        <v>19123</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C619" s="1">
-        <v>384977</v>
-      </c>
-      <c r="D619" s="1"/>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C619" s="1"/>
+      <c r="D619" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>19106</v>
+        <v>19221</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C620" s="1">
-        <v>406439</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C620" s="1"/>
       <c r="D620" s="1"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>19123</v>
+        <v>19492</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C621" s="1"/>
       <c r="D621" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>19221</v>
+        <v>19507</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>28</v>
@@ -7554,21 +7679,19 @@
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>19492</v>
+        <v>19513</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C623" s="1"/>
-      <c r="D623" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D623" s="1"/>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>19507</v>
+        <v>19515</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>28</v>
@@ -7576,9 +7699,9 @@
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>19513</v>
+        <v>19518</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>28</v>
@@ -7586,9 +7709,9 @@
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>19515</v>
+        <v>19519</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>28</v>
@@ -7596,9 +7719,9 @@
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>19518</v>
+        <v>19520</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>28</v>
@@ -7606,9 +7729,9 @@
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>19519</v>
+        <v>19531</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>28</v>
@@ -7616,9 +7739,9 @@
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>19520</v>
+        <v>19532</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>28</v>
@@ -7626,9 +7749,9 @@
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>19531</v>
+        <v>19534</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>28</v>
@@ -7636,9 +7759,9 @@
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>19532</v>
+        <v>19535</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>28</v>
@@ -7646,9 +7769,9 @@
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>19534</v>
+        <v>19536</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>28</v>
@@ -7656,39 +7779,39 @@
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>19535</v>
+        <v>19572</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>19536</v>
+        <v>19573</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>19572</v>
+        <v>19574</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C635" s="1"/>
-      <c r="D635" s="1"/>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D635" s="2"/>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>19573</v>
+        <v>19575</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>27</v>
@@ -7696,53 +7819,53 @@
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>19574</v>
+        <v>19577</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C637" s="1"/>
-      <c r="D637" s="2"/>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D637" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>19575</v>
+        <v>19578</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C638" s="1"/>
-      <c r="D638" s="1"/>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D638" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>19577</v>
+        <v>19768</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C639" s="1"/>
-      <c r="D639" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D639" s="1"/>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>19578</v>
+        <v>19812</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C640" s="1"/>
-      <c r="D640" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D640" s="1"/>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>19768</v>
+        <v>19845</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>28</v>
@@ -7750,19 +7873,21 @@
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>19812</v>
+        <v>19855</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C642" s="1"/>
-      <c r="D642" s="1"/>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D642" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>19845</v>
+        <v>19857</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>28</v>
@@ -7770,89 +7895,89 @@
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>19855</v>
+        <v>19864</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C644" s="1"/>
       <c r="D644" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>19857</v>
+        <v>19893</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C645" s="1"/>
-      <c r="D645" s="1"/>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D645" s="2"/>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>19864</v>
+        <v>19894</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C646" s="1"/>
       <c r="D646" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>19893</v>
+        <v>19895</v>
       </c>
       <c r="B647" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C647" s="1"/>
+      <c r="D647" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>19896</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C648" s="1">
+        <v>406439</v>
+      </c>
+      <c r="D648" s="9"/>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>19899</v>
+      </c>
+      <c r="B649" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C647" s="1"/>
-      <c r="D647" s="2"/>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A648" s="1">
-        <v>19894</v>
-      </c>
-      <c r="B648" s="1" t="s">
+      <c r="C649" s="1"/>
+      <c r="D649" s="1"/>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>19903</v>
+      </c>
+      <c r="B650" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C648" s="1"/>
-      <c r="D648" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A649" s="1">
-        <v>19895</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C649" s="1"/>
-      <c r="D649" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A650" s="1">
-        <v>19896</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C650" s="1">
-        <v>406439</v>
-      </c>
-      <c r="D650" s="1"/>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C650" s="1"/>
+      <c r="D650" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>19899</v>
+        <v>19906</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>27</v>
@@ -7860,41 +7985,19 @@
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>19903</v>
+        <v>19922</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C652" s="1"/>
-      <c r="D652" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A653" s="1">
-        <v>19906</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C653" s="1"/>
-      <c r="D653" s="1"/>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A654" s="1">
-        <v>19922</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C654" s="1"/>
-      <c r="D654" s="1"/>
+      <c r="D652" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D654">
-    <sortCondition ref="A1:A654"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D652">
+    <sortCondition ref="A1:A652"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
